--- a/Address Inputs/Address Input.xlsx
+++ b/Address Inputs/Address Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monty.minh\Documents\Distance-Matrix-Tool\Address Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B288544-2BA2-4812-8B62-D634DDC8CFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88059AE2-71CC-4FA2-8E9A-8B04EFC0F6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Customer ID</t>
   </si>
@@ -50,40 +50,22 @@
     <t>Factory ID</t>
   </si>
   <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>Prague</t>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>BRUH</t>
   </si>
 </sst>
 </file>
@@ -410,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4957B81C-05B9-4661-9B73-21E45B1E65BA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -437,33 +419,22 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -473,10 +444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -499,57 +470,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
